--- a/server/tempass2.xlsx
+++ b/server/tempass2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CO-PO\co_po_web\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C122D2C5-A918-40BE-B13F-9CB6A5DF6BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E55B89-D787-457A-AEA9-6B592A084065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>co2</t>
+  </si>
+  <si>
+    <t>co3</t>
+  </si>
+  <si>
+    <t>co4</t>
+  </si>
+  <si>
+    <t>co5</t>
   </si>
 </sst>
 </file>
@@ -390,7 +399,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -406,7 +415,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>12</v>
@@ -418,13 +427,13 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
